--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627511.3022733165</v>
+        <v>623344.7692716885</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33943812.81471045</v>
+        <v>33943812.81471047</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747053</v>
+        <v>6528279.443747054</v>
       </c>
     </row>
     <row r="9">
@@ -1220,11 +1220,11 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="F9" t="n">
         <v>30.58073358141467</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>16.07267624245948</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>407.4106071367517</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.920905044597244</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1581,22 +1581,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>170.4039438741393</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.8461174193198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>346.2198564981183</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>167.74192999378</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>175.9305164118337</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>124.9643551080482</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>107.2904813400429</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>188.5078921861418</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,13 +2010,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>110.276220601127</v>
+        <v>153.1467343429785</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>230.7877242083268</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.45461388085713</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>337.9064238357456</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>234.9851346407189</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>73.33408519137299</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.6907226285777</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>21.49468793197116</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>25.63771763455681</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>234.9851346407193</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>109.0188769701263</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.6907226285777</v>
+        <v>47.26419098289121</v>
       </c>
       <c r="U28" t="n">
         <v>275.6010546203353</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>88.68351184910443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>289.90809729719</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>67.89098605841126</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34573740886571</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6010546203353</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.3081572941393</v>
+        <v>235.8984797491853</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T32" t="n">
-        <v>60.35286891133667</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>156.8119886554126</v>
       </c>
       <c r="G34" t="n">
         <v>163.0624000411058</v>
@@ -3207,7 +3207,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
-        <v>80.74167869859669</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6010546203353</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>220.757687938748</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>190.9135669680694</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0624000411058</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>15.39620460188127</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
         <v>239.6907226285777</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>240.7687190832214</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>258.4228218081166</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>69.59432490789028</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1646235146885</v>
       </c>
       <c r="U40" t="n">
-        <v>130.6025243739007</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.002871617114843</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>351.9735374332126</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415828</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.8588857901535</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>146.7326647226679</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.6907226285777</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>61.27626339544991</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>31.72277156112567</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.61575831406537</v>
       </c>
       <c r="G46" t="n">
         <v>163.0624000411058</v>
@@ -4155,7 +4155,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
         <v>239.6907226285777</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.39620460188195</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>117.6594827452864</v>
+      </c>
+      <c r="C9" t="n">
+        <v>117.6594827452864</v>
+      </c>
+      <c r="D9" t="n">
         <v>75.92715643465272</v>
       </c>
-      <c r="C9" t="n">
-        <v>75.92715643465272</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>34.19483012401903</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4913,22 +4913,22 @@
         <v>117.6594827452864</v>
       </c>
       <c r="T9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="U9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="V9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="W9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="X9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="Y9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
     </row>
     <row r="10">
@@ -4953,10 +4953,10 @@
         <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -5004,10 +5004,10 @@
         <v>61.2725530619707</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443588</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>61.2725530619707</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1319.497472482388</v>
+        <v>458.7324173436534</v>
       </c>
       <c r="C11" t="n">
-        <v>1319.497472482388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D11" t="n">
-        <v>883.5876876568327</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E11" t="n">
-        <v>883.5876876568327</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>455.7202580660405</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>56.21756674551762</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>1738.639935903077</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.497472482388</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y11" t="n">
-        <v>1319.497472482388</v>
+        <v>885.0319878285612</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5117,16 +5117,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5199,25 +5199,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5229,19 +5229,19 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.514407000715</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.558898871145</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="W13" t="n">
-        <v>1650.558898871145</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X13" t="n">
-        <v>1405.167144204558</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y13" t="n">
         <v>1284.110459942618</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.329659438081</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C14" t="n">
-        <v>1536.329659438081</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D14" t="n">
-        <v>1100.419874612525</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>666.6451297708204</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>666.6451297708204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2150.424914739524</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1745.569460150557</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.329659438081</v>
+        <v>1745.569460150557</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.329659438081</v>
+        <v>1337.28333645021</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C16" t="n">
-        <v>471.655226289377</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D16" t="n">
-        <v>305.7772334908997</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E16" t="n">
-        <v>179.5506121696388</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5445,10 +5445,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527957</v>
@@ -5475,13 +5475,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1162.919920107964</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>935.5002494220726</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1021.590677532125</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C17" t="n">
-        <v>583.4482047155479</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D17" t="n">
-        <v>583.4482047155479</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E17" t="n">
-        <v>583.4482047155479</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>155.5807751247557</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,7 +5536,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
@@ -5548,19 +5548,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>1917.677943822412</v>
       </c>
       <c r="V17" t="n">
-        <v>1849.01926465316</v>
+        <v>1555.060993756239</v>
       </c>
       <c r="W17" t="n">
-        <v>1849.01926465316</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="X17" t="n">
-        <v>1429.876801232471</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="Y17" t="n">
-        <v>1021.590677532125</v>
+        <v>1150.205539167272</v>
       </c>
     </row>
     <row r="18">
@@ -5576,13 +5576,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.5014354710338</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="C19" t="n">
-        <v>670.9397239542587</v>
+        <v>544.4852694391894</v>
       </c>
       <c r="D19" t="n">
-        <v>505.0617311557814</v>
+        <v>378.6072766407121</v>
       </c>
       <c r="E19" t="n">
-        <v>335.3037274065187</v>
+        <v>378.6072766407121</v>
       </c>
       <c r="F19" t="n">
-        <v>158.5966733682749</v>
+        <v>201.9002226024683</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5676,7 +5676,7 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>358.0754347909399</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
         <v>481.9462364092378</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y19" t="n">
-        <v>1035.320054190021</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1144.102679307047</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1144.102679307047</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>708.1928944814913</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>708.1928944814913</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>280.325464890699</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5788,16 +5788,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.24425759636</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1552.388803007393</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1552.388803007393</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1144.102679307047</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>743.6816307030845</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>571.1199191863094</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D22" t="n">
-        <v>405.2419263878321</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>235.4839226385694</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>58.77686860032557</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>58.77686860032557</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1408.311674774551</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>1162.919920107963</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>935.5002494220716</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1659.402585998764</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.082965962657</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D23" t="n">
-        <v>882.1731811371019</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E23" t="n">
-        <v>448.3984362953971</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F23" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G23" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
         <v>531.4362430141192</v>
@@ -6010,31 +6010,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V23" t="n">
-        <v>2085.702156483672</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W23" t="n">
-        <v>2085.702156483672</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="X23" t="n">
-        <v>2085.702156483672</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="Y23" t="n">
-        <v>2085.702156483672</v>
+        <v>2210.960384690534</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D24" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F24" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G24" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H24" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I24" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J24" t="n">
-        <v>953.0192784942872</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K24" t="n">
-        <v>1119.479438288678</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L24" t="n">
-        <v>1343.305665591862</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M24" t="n">
-        <v>1604.500315653571</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N24" t="n">
-        <v>1872.608010893476</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>2117.874172948134</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P24" t="n">
-        <v>2314.721891043801</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R24" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S24" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T24" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U24" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V24" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W24" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X24" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y24" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.01600546384</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C25" t="n">
-        <v>611.4542939470649</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D25" t="n">
-        <v>445.5763011485876</v>
+        <v>457.5738601958154</v>
       </c>
       <c r="E25" t="n">
-        <v>275.8182973993249</v>
+        <v>287.8158564465527</v>
       </c>
       <c r="F25" t="n">
-        <v>275.8182973993249</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="G25" t="n">
         <v>111.1088024083089</v>
@@ -6144,55 +6144,55 @@
         <v>111.1088024083089</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J25" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903014</v>
+        <v>297.0554197191659</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.511567973113</v>
+        <v>843.7531134019773</v>
       </c>
       <c r="M25" t="n">
-        <v>1483.45281759531</v>
+        <v>1438.709362926523</v>
       </c>
       <c r="N25" t="n">
-        <v>1615.703969482473</v>
+        <v>2013.219317971331</v>
       </c>
       <c r="O25" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T25" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W25" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.254294868719</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y25" t="n">
-        <v>975.8346241828272</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.557498684977</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C26" t="n">
-        <v>1372.4150258684</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D26" t="n">
-        <v>936.5052410428443</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E26" t="n">
-        <v>502.7304962011395</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>74.86306661034723</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G26" t="n">
-        <v>74.86306661034723</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I26" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882627</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786138</v>
       </c>
       <c r="K26" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N26" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T26" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U26" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V26" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W26" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="X26" t="n">
-        <v>2236.857069169884</v>
+        <v>2210.960384690534</v>
       </c>
       <c r="Y26" t="n">
-        <v>2236.857069169884</v>
+        <v>2210.960384690534</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D27" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F27" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G27" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H27" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I27" t="n">
-        <v>855.6262724880679</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J27" t="n">
-        <v>953.0192784942872</v>
+        <v>119.8578922240946</v>
       </c>
       <c r="K27" t="n">
-        <v>1119.479438288678</v>
+        <v>286.3180520184856</v>
       </c>
       <c r="L27" t="n">
-        <v>1343.305665591862</v>
+        <v>510.1442793216696</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.500315653571</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N27" t="n">
-        <v>1872.608010893476</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O27" t="n">
-        <v>2117.874172948134</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.721891043801</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R27" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S27" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T27" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U27" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V27" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W27" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X27" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y27" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1033.147482141622</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C28" t="n">
-        <v>860.5857706248468</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D28" t="n">
-        <v>694.7077778263695</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5877000787672</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J28" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K28" t="n">
-        <v>571.8138742903014</v>
+        <v>381.6134923430851</v>
       </c>
       <c r="L28" t="n">
-        <v>700.3016862051518</v>
+        <v>928.3111860258965</v>
       </c>
       <c r="M28" t="n">
-        <v>969.0316591822252</v>
+        <v>1063.783568369529</v>
       </c>
       <c r="N28" t="n">
-        <v>1543.541614227034</v>
+        <v>1196.034720256693</v>
       </c>
       <c r="O28" t="n">
-        <v>2085.366207689827</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060791</v>
+        <v>2400.577499496421</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403887</v>
+        <v>2122.192595839516</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.992505274317</v>
+        <v>1835.237087709947</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.966100860609</v>
+        <v>1563.210683296238</v>
       </c>
       <c r="X28" t="n">
-        <v>1224.966100860609</v>
+        <v>1317.818928629651</v>
       </c>
       <c r="Y28" t="n">
-        <v>1224.966100860609</v>
+        <v>1090.399257943759</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1310.040610727894</v>
+        <v>1874.240119103712</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.040610727894</v>
+        <v>1436.097646287135</v>
       </c>
       <c r="D29" t="n">
-        <v>1310.040610727894</v>
+        <v>1000.187861461579</v>
       </c>
       <c r="E29" t="n">
-        <v>876.2658658861894</v>
+        <v>566.4131166198745</v>
       </c>
       <c r="F29" t="n">
-        <v>448.3984362953971</v>
+        <v>138.5456870290822</v>
       </c>
       <c r="G29" t="n">
-        <v>48.9663821309969</v>
+        <v>138.5456870290822</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882621</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T29" t="n">
-        <v>2448.319106549845</v>
+        <v>2236.857069169885</v>
       </c>
       <c r="U29" t="n">
-        <v>2448.319106549845</v>
+        <v>2236.857069169885</v>
       </c>
       <c r="V29" t="n">
-        <v>2448.319106549845</v>
+        <v>1874.240119103712</v>
       </c>
       <c r="W29" t="n">
-        <v>2155.482644633491</v>
+        <v>1874.240119103712</v>
       </c>
       <c r="X29" t="n">
-        <v>1736.340181212802</v>
+        <v>1874.240119103712</v>
       </c>
       <c r="Y29" t="n">
-        <v>1736.340181212802</v>
+        <v>1874.240119103712</v>
       </c>
     </row>
     <row r="30">
@@ -6521,40 +6521,40 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C30" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D30" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E30" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F30" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H30" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I30" t="n">
-        <v>84.4584715023734</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085926</v>
+        <v>119.8578922240945</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3116373029835</v>
+        <v>286.3180520184854</v>
       </c>
       <c r="L30" t="n">
-        <v>572.1378646061675</v>
+        <v>510.1442793216694</v>
       </c>
       <c r="M30" t="n">
-        <v>833.3325146678769</v>
+        <v>771.3389293833791</v>
       </c>
       <c r="N30" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O30" t="n">
         <v>1284.712786677942</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>787.7557274750343</v>
+        <v>802.4478978281106</v>
       </c>
       <c r="C31" t="n">
-        <v>615.1940159582592</v>
+        <v>629.8861863113356</v>
       </c>
       <c r="D31" t="n">
-        <v>449.3160231597819</v>
+        <v>464.0081935128583</v>
       </c>
       <c r="E31" t="n">
-        <v>279.5580194105192</v>
+        <v>294.2501897635955</v>
       </c>
       <c r="F31" t="n">
-        <v>102.8509653722754</v>
+        <v>117.5431357253517</v>
       </c>
       <c r="G31" t="n">
-        <v>102.8509653722754</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J31" t="n">
-        <v>110.0676242284526</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K31" t="n">
-        <v>210.475734554476</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L31" t="n">
-        <v>757.1734282372872</v>
+        <v>542.2681845220129</v>
       </c>
       <c r="M31" t="n">
-        <v>892.6458105809196</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N31" t="n">
-        <v>1467.155765625728</v>
+        <v>1711.734389091367</v>
       </c>
       <c r="O31" t="n">
-        <v>2008.980359088521</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T31" t="n">
-        <v>2062.332917060791</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.948013403887</v>
+        <v>2026.059854442855</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.992505274317</v>
+        <v>1739.104346313286</v>
       </c>
       <c r="W31" t="n">
-        <v>1224.966100860609</v>
+        <v>1467.077941899577</v>
       </c>
       <c r="X31" t="n">
-        <v>979.5743461940215</v>
+        <v>1221.68618723299</v>
       </c>
       <c r="Y31" t="n">
-        <v>979.5743461940215</v>
+        <v>994.2665165470978</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.88420804487</v>
+        <v>1159.164892465223</v>
       </c>
       <c r="C32" t="n">
-        <v>1181.741735228293</v>
+        <v>721.0224196486465</v>
       </c>
       <c r="D32" t="n">
-        <v>745.831950402738</v>
+        <v>721.0224196486465</v>
       </c>
       <c r="E32" t="n">
-        <v>745.831950402738</v>
+        <v>287.2476748069417</v>
       </c>
       <c r="F32" t="n">
-        <v>317.9645208119458</v>
+        <v>287.2476748069417</v>
       </c>
       <c r="G32" t="n">
-        <v>317.9645208119458</v>
+        <v>287.2476748069417</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141192</v>
+        <v>531.436243014119</v>
       </c>
       <c r="L32" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M32" t="n">
         <v>1173.781693844502</v>
@@ -6721,31 +6721,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2387.35661270001</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U32" t="n">
-        <v>2387.35661270001</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V32" t="n">
-        <v>2024.739662633837</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W32" t="n">
-        <v>1619.88420804487</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X32" t="n">
-        <v>1619.88420804487</v>
+        <v>1585.464462950131</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.88420804487</v>
+        <v>1585.464462950131</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H33" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I33" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J33" t="n">
         <v>181.8514775085927</v>
       </c>
       <c r="K33" t="n">
-        <v>348.3116373029835</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L33" t="n">
-        <v>572.1378646061675</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M33" t="n">
-        <v>833.3325146678769</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N33" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
-        <v>1613.147991278647</v>
+        <v>1675.141576563145</v>
       </c>
       <c r="R33" t="n">
         <v>1677.151305564151</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>864.764995067493</v>
+        <v>1074.474302241819</v>
       </c>
       <c r="C34" t="n">
-        <v>692.203283550718</v>
+        <v>901.912590725044</v>
       </c>
       <c r="D34" t="n">
-        <v>692.203283550718</v>
+        <v>736.0345979265667</v>
       </c>
       <c r="E34" t="n">
-        <v>522.4452798014552</v>
+        <v>566.2765941773039</v>
       </c>
       <c r="F34" t="n">
-        <v>345.7382257632114</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G34" t="n">
-        <v>181.0287307721954</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H34" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J34" t="n">
-        <v>110.0676242284526</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K34" t="n">
-        <v>210.475734554476</v>
+        <v>455.0543580201142</v>
       </c>
       <c r="L34" t="n">
-        <v>542.2681845220123</v>
+        <v>1001.752051702926</v>
       </c>
       <c r="M34" t="n">
         <v>1137.224434046558</v>
@@ -6873,37 +6873,37 @@
         <v>1711.734389091366</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.558982554159</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P34" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T34" t="n">
-        <v>2366.761855339142</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.376951682237</v>
+        <v>2026.059854442855</v>
       </c>
       <c r="V34" t="n">
-        <v>1801.421443552668</v>
+        <v>1739.104346313286</v>
       </c>
       <c r="W34" t="n">
-        <v>1529.395039138959</v>
+        <v>1739.104346313286</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.003284472372</v>
+        <v>1493.712591646698</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.58361378648</v>
+        <v>1266.292920960806</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1384.858765290512</v>
+        <v>1569.505904963542</v>
       </c>
       <c r="C35" t="n">
-        <v>946.716292473935</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D35" t="n">
-        <v>510.8065076483795</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E35" t="n">
-        <v>317.9645208119458</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F35" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H35" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786133</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S35" t="n">
-        <v>2409.462380959786</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T35" t="n">
-        <v>2198.000343579825</v>
+        <v>2236.857069169885</v>
       </c>
       <c r="U35" t="n">
-        <v>2198.000343579825</v>
+        <v>1977.792028663889</v>
       </c>
       <c r="V35" t="n">
-        <v>2198.000343579825</v>
+        <v>1977.792028663889</v>
       </c>
       <c r="W35" t="n">
-        <v>1793.144888990858</v>
+        <v>1977.792028663889</v>
       </c>
       <c r="X35" t="n">
-        <v>1793.144888990858</v>
+        <v>1977.792028663889</v>
       </c>
       <c r="Y35" t="n">
-        <v>1384.858765290512</v>
+        <v>1569.505904963542</v>
       </c>
     </row>
     <row r="36">
@@ -6995,37 +6995,37 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C36" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D36" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E36" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F36" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H36" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I36" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J36" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K36" t="n">
-        <v>348.3116373029835</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L36" t="n">
-        <v>572.1378646061675</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M36" t="n">
-        <v>833.3325146678769</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N36" t="n">
         <v>1101.440209907782</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.0783541050384</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="C37" t="n">
-        <v>743.5166425882634</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="D37" t="n">
-        <v>577.6386497897861</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="E37" t="n">
-        <v>407.8806460405234</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="F37" t="n">
         <v>407.8806460405234</v>
@@ -7092,55 +7092,55 @@
         <v>111.1088024083089</v>
       </c>
       <c r="I37" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J37" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L37" t="n">
-        <v>1118.511567973113</v>
+        <v>833.5592768385936</v>
       </c>
       <c r="M37" t="n">
-        <v>1483.452817595309</v>
+        <v>969.031659182226</v>
       </c>
       <c r="N37" t="n">
-        <v>1615.703969482473</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719485</v>
+        <v>2085.366207689828</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S37" t="n">
-        <v>2432.767384729763</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T37" t="n">
-        <v>2190.655543690796</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U37" t="n">
-        <v>1912.270640033891</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V37" t="n">
-        <v>1625.315131904322</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W37" t="n">
-        <v>1353.288727490613</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X37" t="n">
-        <v>1107.896972824026</v>
+        <v>981.7653745139216</v>
       </c>
       <c r="Y37" t="n">
-        <v>1107.896972824026</v>
+        <v>754.3457038280299</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1143.206334478634</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="C38" t="n">
-        <v>882.1731811371019</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="D38" t="n">
-        <v>882.1731811371019</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="E38" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="F38" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099691</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I38" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K38" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
         <v>1517.560141290067</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q38" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R38" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S38" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T38" t="n">
-        <v>2236.857069169884</v>
+        <v>2339.16508307303</v>
       </c>
       <c r="U38" t="n">
-        <v>1977.792028663888</v>
+        <v>2339.16508307303</v>
       </c>
       <c r="V38" t="n">
-        <v>1977.792028663888</v>
+        <v>1976.548133006856</v>
       </c>
       <c r="W38" t="n">
-        <v>1977.792028663888</v>
+        <v>1571.69267841789</v>
       </c>
       <c r="X38" t="n">
-        <v>1977.792028663888</v>
+        <v>1152.5502149972</v>
       </c>
       <c r="Y38" t="n">
-        <v>1569.505904963542</v>
+        <v>744.2640912968535</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D39" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F39" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G39" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H39" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I39" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J39" t="n">
-        <v>953.0192784942872</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K39" t="n">
-        <v>1119.479438288678</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L39" t="n">
-        <v>1343.305665591862</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M39" t="n">
-        <v>1604.500315653571</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N39" t="n">
-        <v>1872.608010893476</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.874172948134</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P39" t="n">
-        <v>2314.721891043801</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2446.309377548838</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R39" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S39" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T39" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U39" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V39" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W39" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X39" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y39" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.785408143282</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C40" t="n">
-        <v>920.2236966265071</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D40" t="n">
-        <v>754.3457038280299</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E40" t="n">
-        <v>584.5877000787672</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F40" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G40" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H40" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K40" t="n">
-        <v>571.8138742903014</v>
+        <v>357.5645709534016</v>
       </c>
       <c r="L40" t="n">
-        <v>1118.511567973113</v>
+        <v>486.052382868252</v>
       </c>
       <c r="M40" t="n">
-        <v>1253.983950316745</v>
+        <v>621.5247652118843</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.235102203909</v>
+        <v>1196.034720256693</v>
       </c>
       <c r="O40" t="n">
-        <v>1737.859313719485</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R40" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S40" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T40" t="n">
-        <v>2448.319106549845</v>
+        <v>2208.758880777434</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.397364758026</v>
+        <v>1930.373977120529</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.441856628457</v>
+        <v>1643.41846899096</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.415452214749</v>
+        <v>1371.392064577251</v>
       </c>
       <c r="X40" t="n">
-        <v>1512.023697548161</v>
+        <v>1126.000309910664</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.604026862269</v>
+        <v>898.5806392247719</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1938.935303073829</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C41" t="n">
-        <v>1500.792830257252</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.792830257252</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E41" t="n">
-        <v>1145.264004567138</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F41" t="n">
-        <v>717.396574976346</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G41" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H41" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882624</v>
+        <v>122.8353788882627</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786138</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959786</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T41" t="n">
-        <v>2198.000343579825</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U41" t="n">
-        <v>1938.935303073829</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="V41" t="n">
-        <v>1938.935303073829</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="W41" t="n">
-        <v>1938.935303073829</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="X41" t="n">
-        <v>1938.935303073829</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="Y41" t="n">
-        <v>1938.935303073829</v>
+        <v>1789.71421987948</v>
       </c>
     </row>
     <row r="42">
@@ -7469,49 +7469,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D42" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E42" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H42" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I42" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J42" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K42" t="n">
-        <v>348.3116373029835</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L42" t="n">
-        <v>572.1378646061675</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M42" t="n">
-        <v>833.3325146678769</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N42" t="n">
         <v>1101.440209907782</v>
       </c>
       <c r="O42" t="n">
-        <v>1346.706371962439</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P42" t="n">
         <v>1543.554090058107</v>
       </c>
       <c r="Q42" t="n">
-        <v>1675.141576563144</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R42" t="n">
         <v>1677.151305564151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.785408143282</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C43" t="n">
-        <v>920.2236966265071</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D43" t="n">
-        <v>754.3457038280299</v>
+        <v>383.4338808712756</v>
       </c>
       <c r="E43" t="n">
-        <v>584.5877000787672</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="F43" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I43" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J43" t="n">
-        <v>110.0676242284526</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K43" t="n">
-        <v>210.475734554476</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L43" t="n">
-        <v>757.1734282372872</v>
+        <v>757.1734282372875</v>
       </c>
       <c r="M43" t="n">
         <v>1352.129677761833</v>
       </c>
       <c r="N43" t="n">
-        <v>1615.703969482473</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X43" t="n">
-        <v>1224.966100860609</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y43" t="n">
-        <v>1224.966100860609</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2053.658952886575</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.516480069998</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="D44" t="n">
-        <v>1179.606695244443</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E44" t="n">
-        <v>745.831950402738</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F44" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I44" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J44" t="n">
         <v>286.3580891786135</v>
       </c>
       <c r="K44" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L44" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M44" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N44" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O44" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P44" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U44" t="n">
-        <v>2448.319106549845</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V44" t="n">
-        <v>2085.702156483672</v>
+        <v>1787.780390387617</v>
       </c>
       <c r="W44" t="n">
-        <v>2053.658952886575</v>
+        <v>1382.924935798651</v>
       </c>
       <c r="X44" t="n">
-        <v>2053.658952886575</v>
+        <v>1382.924935798651</v>
       </c>
       <c r="Y44" t="n">
-        <v>2053.658952886575</v>
+        <v>974.6388120983041</v>
       </c>
     </row>
     <row r="45">
@@ -7706,49 +7706,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D45" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E45" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G45" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I45" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085927</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029835</v>
+        <v>348.3116373029837</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061675</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M45" t="n">
-        <v>833.3325146678769</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N45" t="n">
         <v>1101.440209907782</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.706371962439</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.141576563144</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R45" t="n">
         <v>1677.151305564151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.0783541050384</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="C46" t="n">
-        <v>743.5166425882634</v>
+        <v>387.7743452723684</v>
       </c>
       <c r="D46" t="n">
-        <v>577.6386497897861</v>
+        <v>387.7743452723684</v>
       </c>
       <c r="E46" t="n">
-        <v>407.8806460405234</v>
+        <v>387.7743452723684</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J46" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K46" t="n">
-        <v>571.8138742903014</v>
+        <v>485.2341891256116</v>
       </c>
       <c r="L46" t="n">
-        <v>1118.511567973113</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1253.983950316745</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.235102203909</v>
+        <v>1364.227495121025</v>
       </c>
       <c r="O46" t="n">
-        <v>1737.859313719485</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S46" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T46" t="n">
-        <v>2206.207265510878</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.822361853974</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V46" t="n">
-        <v>1640.866853724404</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W46" t="n">
-        <v>1368.840449310696</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X46" t="n">
-        <v>1123.448694644108</v>
+        <v>979.5743461940224</v>
       </c>
       <c r="Y46" t="n">
-        <v>1107.896972824026</v>
+        <v>752.1546755081306</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>156.7304232042867</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371571</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>231.7867346248127</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>119.3781013594107</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>172.866422008696</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>134.6036269024659</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>77.15742282960127</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>159.594887172675</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3582202552385</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10749,19 +10749,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>134.6036269024665</v>
       </c>
       <c r="M37" t="n">
-        <v>231.786734624812</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>148.574582221137</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>231.7867346248127</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11229,16 +11229,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>132.649636195431</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>65.22432129475305</v>
       </c>
       <c r="O46" t="n">
-        <v>231.7867346248127</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>26.35044095165927</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>258.1034308969314</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.1988217576051</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.299356559713</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.28780790919927</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,16 +23554,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>191.2488505717317</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>13.9699161199635</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.09606860372189</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>288.2171830672746</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>67.97209237755942</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.81754798247979</v>
+        <v>9.947034240628284</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>164.7199401989907</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24028,16 +24028,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5660061336201</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>95.8546242526653</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
         <v>266.3081572941393</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415828</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T23" t="n">
         <v>209.3474170061614</v>
@@ -24265,7 +24265,7 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>169.2181278226242</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>90.88512767911953</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
         <v>130.7417251547865</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>221.4431491879505</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>240.6704396595825</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415828</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
         <v>256.4743901009363</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>179.9659041457631</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.04154674164384</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>192.4265316456865</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>177.6246454450348</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415828</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>110.8988027458871</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>95.17141398269452</v>
       </c>
       <c r="H31" t="n">
-        <v>77.39598774592082</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>30.40967754495398</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>148.9945480948247</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U32" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>18.12799484244869</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>158.949043929981</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>213.0033601496629</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>238.5234304252184</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>127.0394003637045</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.169118036700269</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>175.3382262802943</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>139.7530920982711</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
-        <v>239.6907226285777</v>
+        <v>2.52609911388916</v>
       </c>
       <c r="U40" t="n">
-        <v>144.9985302464345</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>417.0337031629438</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>77.46345996007517</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.04154674164371</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>17.48654814782466</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>360.7603113846088</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>369.0841284819513</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>133.324225183796</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.7492693771509</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343851.5535948276</v>
+        <v>343851.5535948275</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>343851.5535948276</v>
+        <v>343851.5535948275</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353970.3061835569</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>353970.3061835568</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>353970.3061835568</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353970.3061835569</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353970.3061835568</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353970.3061835569</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353970.3061835568</v>
+        <v>353970.306183557</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353970.3061835569</v>
+        <v>353970.306183557</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.8588450989</v>
+        <v>379453.858845099</v>
       </c>
       <c r="C2" t="n">
         <v>379453.8588450989</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="F2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="G2" t="n">
+        <v>228081.4783861851</v>
+      </c>
+      <c r="H2" t="n">
         <v>228081.4783861852</v>
-      </c>
-      <c r="H2" t="n">
-        <v>228081.4783861851</v>
       </c>
       <c r="I2" t="n">
         <v>234682.5783707575</v>
       </c>
       <c r="J2" t="n">
+        <v>234682.5783707576</v>
+      </c>
+      <c r="K2" t="n">
+        <v>234682.5783707576</v>
+      </c>
+      <c r="L2" t="n">
+        <v>234682.5783707576</v>
+      </c>
+      <c r="M2" t="n">
+        <v>234682.5783707576</v>
+      </c>
+      <c r="N2" t="n">
+        <v>234682.5783707576</v>
+      </c>
+      <c r="O2" t="n">
         <v>234682.5783707575</v>
       </c>
-      <c r="K2" t="n">
-        <v>234682.5783707575</v>
-      </c>
-      <c r="L2" t="n">
-        <v>234682.5783707575</v>
-      </c>
-      <c r="M2" t="n">
-        <v>234682.5783707575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>234682.5783707575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>234682.5783707574</v>
-      </c>
       <c r="P2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707576</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935647</v>
+        <v>18943.9804793566</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630179</v>
+        <v>10456.45543630175</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831154</v>
+        <v>136754.9043831155</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
-        <v>21859.30180364563</v>
+        <v>21859.30180364564</v>
       </c>
       <c r="F4" t="n">
         <v>21859.30180364564</v>
@@ -26441,22 +26441,22 @@
         <v>22658.91960019212</v>
       </c>
       <c r="J4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="K4" t="n">
-        <v>22658.91960019211</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="L4" t="n">
         <v>22658.91960019212</v>
       </c>
       <c r="M4" t="n">
-        <v>22658.91960019211</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="N4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="O4" t="n">
-        <v>22658.91960019212</v>
+        <v>22658.91960019213</v>
       </c>
       <c r="P4" t="n">
         <v>22658.91960019212</v>
@@ -26487,31 +26487,31 @@
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="J5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397015</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="L5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="M5" t="n">
-        <v>47767.76961397015</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="N5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.76961397015</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="P5" t="n">
-        <v>47767.76961397016</v>
+        <v>47767.76961397017</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.63581576456</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.6358157645</v>
       </c>
       <c r="D6" t="n">
-        <v>16127.63411100589</v>
+        <v>16127.63411100601</v>
       </c>
       <c r="E6" t="n">
-        <v>-352314.41418308</v>
+        <v>-352868.294626302</v>
       </c>
       <c r="F6" t="n">
-        <v>160171.0953729016</v>
+        <v>159617.2149296797</v>
       </c>
       <c r="G6" t="n">
-        <v>160171.0953729017</v>
+        <v>159617.2149296797</v>
       </c>
       <c r="H6" t="n">
-        <v>160171.0953729017</v>
+        <v>159617.2149296798</v>
       </c>
       <c r="I6" t="n">
-        <v>145311.9086772387</v>
+        <v>144780.7906477566</v>
       </c>
       <c r="J6" t="n">
-        <v>164255.8891565952</v>
+        <v>163724.7711271133</v>
       </c>
       <c r="K6" t="n">
-        <v>164255.8891565952</v>
+        <v>163724.7711271133</v>
       </c>
       <c r="L6" t="n">
-        <v>153799.4337202934</v>
+        <v>153268.3156908115</v>
       </c>
       <c r="M6" t="n">
-        <v>27500.98477347979</v>
+        <v>26969.86674399781</v>
       </c>
       <c r="N6" t="n">
-        <v>164255.8891565953</v>
+        <v>163724.7711271133</v>
       </c>
       <c r="O6" t="n">
-        <v>164255.8891565952</v>
+        <v>163724.7711271132</v>
       </c>
       <c r="P6" t="n">
-        <v>164255.8891565952</v>
+        <v>163724.7711271133</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528676</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528676</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374612</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="L4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374612</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374612</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="P4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374616</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964617</v>
+        <v>17.39528265964634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752751</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.766891314407</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>62.59847694490114</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>51.96926641858533</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27985,7 +27985,7 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
         <v>174.5685466570983</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>173.8277562893378</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888224</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>226.8651608774622</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32566,10 +32566,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32703,31 +32703,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q23" t="n">
         <v>210.1590056992511</v>
@@ -32736,13 +32736,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H24" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350075</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.29686991973722</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S24" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T24" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
@@ -32879,28 +32879,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P25" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T25" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,31 +32940,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992511</v>
@@ -32973,13 +32973,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H27" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462273</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365582</v>
+        <v>71.60758595262394</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P27" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.29686991973722</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S27" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T27" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
@@ -33116,28 +33116,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P28" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S28" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T28" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,31 +33177,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992511</v>
@@ -33210,13 +33210,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S29" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530356</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H30" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365582</v>
+        <v>71.60758595262381</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>185.1238149193534</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -33286,16 +33286,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S30" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T30" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106637</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M31" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P31" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368296</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S31" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T31" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,31 +33414,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H32" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q32" t="n">
         <v>210.1590056992511</v>
@@ -33447,13 +33447,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S32" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H33" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L33" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>208.1960706620276</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
         <v>198.8360788845127</v>
@@ -33523,16 +33523,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240959993</v>
+        <v>2.03002929394529</v>
       </c>
       <c r="S33" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T33" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K34" t="n">
         <v>101.4223336626499</v>
@@ -33590,28 +33590,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R34" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S34" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T34" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,31 +33651,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H35" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q35" t="n">
         <v>210.1590056992511</v>
@@ -33684,13 +33684,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S35" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H36" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L36" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O36" t="n">
-        <v>185.1238149193534</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -33760,16 +33760,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S36" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T36" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K37" t="n">
         <v>101.4223336626499</v>
@@ -33827,28 +33827,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P37" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R37" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S37" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T37" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,31 +33888,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H38" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q38" t="n">
         <v>210.1590056992511</v>
@@ -33921,13 +33921,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S38" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H39" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350075</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P39" t="n">
         <v>198.8360788845127</v>
@@ -33997,16 +33997,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293946427</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S39" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T39" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K40" t="n">
         <v>101.4223336626499</v>
@@ -34064,28 +34064,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P40" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R40" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S40" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T40" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q41" t="n">
         <v>210.1590056992511</v>
@@ -34158,13 +34158,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S41" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H42" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R42" t="n">
-        <v>2.030029293945972</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S42" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T42" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K43" t="n">
         <v>101.4223336626499</v>
@@ -34301,28 +34301,28 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P43" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S43" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T43" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H44" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q44" t="n">
         <v>210.1590056992511</v>
@@ -34395,13 +34395,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S44" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T44" t="n">
-        <v>8.519137849530356</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H45" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q45" t="n">
         <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945972</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S45" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T45" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H46" t="n">
-        <v>7.761427411742698</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106637</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K46" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M46" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P46" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.09867882368296</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R46" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S46" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T46" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35728,10 +35728,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35813,13 +35813,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>296.14752065127</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36044,10 +36044,10 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>254.5083025654566</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619342</v>
@@ -36123,19 +36123,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
         <v>307.1122435613393</v>
@@ -36369,19 +36369,19 @@
         <v>341.7215451562188</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O23" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518621</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
         <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.29686991973722</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,28 +36518,28 @@
         <v>149.172653800147</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M25" t="n">
-        <v>368.627524870906</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>242.7673379624532</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O26" t="n">
         <v>327.8992318321093</v>
@@ -36615,10 +36615,10 @@
         <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462276</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>98.3767737436558</v>
+        <v>71.60758595262394</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
@@ -36691,13 +36691,13 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.29686991973722</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587465</v>
+        <v>274.2887556713459</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7856686008589</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M28" t="n">
-        <v>271.4444171485591</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N28" t="n">
-        <v>580.3130859038469</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O28" t="n">
         <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q28" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O29" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R29" t="n">
         <v>122.2479252862504</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>98.3767737436558</v>
+        <v>71.60758595262381</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>185.1238149193534</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>552.2198926089004</v>
+        <v>335.1438888560978</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460933</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N31" t="n">
         <v>580.313085903847</v>
@@ -37007,13 +37007,13 @@
         <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
-        <v>182.7382308928165</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L32" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O32" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518621</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>208.1960706620276</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
         <v>247.7435980350076</v>
@@ -37171,7 +37171,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240959992</v>
+        <v>2.03002929394529</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106636</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K34" t="n">
-        <v>101.4223336626499</v>
+        <v>261.017220835325</v>
       </c>
       <c r="L34" t="n">
-        <v>335.1438888560974</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O34" t="n">
         <v>547.2975691543368</v>
@@ -37250,7 +37250,7 @@
         <v>73.0986788236828</v>
       </c>
       <c r="R34" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K35" t="n">
         <v>247.5536907429348</v>
@@ -37314,19 +37314,19 @@
         <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N35" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R35" t="n">
         <v>122.2479252862504</v>
@@ -37384,22 +37384,22 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776818</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>185.1238149193534</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K37" t="n">
         <v>378.9561261587464</v>
       </c>
       <c r="L37" t="n">
-        <v>552.2198926089005</v>
+        <v>264.3892955033255</v>
       </c>
       <c r="M37" t="n">
-        <v>368.6275248709053</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082464</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P37" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P38" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
         <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293946427</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587465</v>
+        <v>249.9969158837869</v>
       </c>
       <c r="L40" t="n">
-        <v>552.2198926089004</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M40" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O40" t="n">
-        <v>355.1759712278549</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
         <v>456.5978726797223</v>
@@ -37724,7 +37724,7 @@
         <v>242.9903706058367</v>
       </c>
       <c r="R40" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J41" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O41" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862504</v>
@@ -37858,31 +37858,31 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776818</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973654</v>
       </c>
       <c r="R42" t="n">
-        <v>2.030029293945972</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K43" t="n">
         <v>101.4223336626499</v>
@@ -37949,19 +37949,19 @@
         <v>600.9659086106519</v>
       </c>
       <c r="N43" t="n">
-        <v>266.2366583036771</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030423</v>
+        <v>330.2215654015342</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562188</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O44" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518621</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862508</v>
+        <v>122.2479252862504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776818</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q45" t="n">
         <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945972</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K46" t="n">
         <v>378.9561261587465</v>
@@ -38186,19 +38186,19 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082462</v>
+        <v>198.8113434029995</v>
       </c>
       <c r="O46" t="n">
-        <v>355.1759712278549</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>456.5978726797223</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R46" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
